--- a/20-Data-Analysis-With-Pandas-Openpyxl/Products_Merge_Pandas.xlsx
+++ b/20-Data-Analysis-With-Pandas-Openpyxl/Products_Merge_Pandas.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Learn_Python\20-Data-Analysis-With-Pandas-Openpyxl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Products" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Source" sheetId="2" r:id="rId4"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -137,27 +145,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF4A4A4A"/>
       <name val="Arial"/>
     </font>
@@ -167,7 +178,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,7 +194,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -197,8 +214,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -208,125 +227,383 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FFC2C2C2"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFC2C2C2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFC2C2C2"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFC2C2C2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V905"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -354,12 +631,12 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="12">
-        <v>4.251099609612E12</v>
+        <v>4251099609612</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -375,7 +652,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -394,12 +671,12 @@
       <c r="N3" s="13"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="12">
-        <v>4.251099609674E12</v>
+        <v>4251099609674</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -415,12 +692,12 @@
       <c r="N4" s="13"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="12">
-        <v>4.251099613336E12</v>
+        <v>4251099613336</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -436,12 +713,12 @@
       <c r="N5" s="13"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="12">
-        <v>4.251099600817E12</v>
+        <v>4251099600817</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -457,12 +734,12 @@
       <c r="N6" s="13"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="12">
-        <v>4.251099600831E12</v>
+        <v>4251099600831</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -478,12 +755,12 @@
       <c r="N7" s="13"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="12">
-        <v>4.251099612148E12</v>
+        <v>4251099612148</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -499,12 +776,12 @@
       <c r="N8" s="13"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="12">
-        <v>4.251099612568E12</v>
+        <v>4251099612568</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -520,12 +797,12 @@
       <c r="N9" s="13"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="12">
-        <v>4.251099612582E12</v>
+        <v>4251099612582</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -541,12 +818,12 @@
       <c r="N10" s="13"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12">
-        <v>4.251099610144E12</v>
+        <v>4251099610144</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -562,7 +839,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -579,7 +856,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -596,7 +873,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -613,7 +890,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -630,7 +907,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -647,7 +924,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -664,7 +941,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -681,7 +958,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -698,7 +975,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="H20" s="10"/>
       <c r="I20" s="17"/>
@@ -709,7 +986,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="H21" s="10"/>
       <c r="I21" s="17"/>
@@ -720,7 +997,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="H22" s="10"/>
       <c r="I22" s="17"/>
@@ -731,7 +1008,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="H23" s="10"/>
       <c r="I23" s="17"/>
@@ -742,7 +1019,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="H24" s="10"/>
       <c r="I24" s="17"/>
@@ -753,7 +1030,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="H25" s="10"/>
       <c r="I25" s="17"/>
@@ -764,7 +1041,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
       <c r="H26" s="10"/>
       <c r="I26" s="17"/>
@@ -775,7 +1052,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="20"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
       <c r="H27" s="10"/>
       <c r="I27" s="17"/>
@@ -786,7 +1063,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="H28" s="10"/>
       <c r="I28" s="17"/>
@@ -797,7 +1074,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="H29" s="10"/>
       <c r="I29" s="17"/>
@@ -808,7 +1085,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="H30" s="10"/>
       <c r="I30" s="17"/>
@@ -819,7 +1096,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="H31" s="10"/>
       <c r="I31" s="17"/>
@@ -830,3505 +1107,3506 @@
       <c r="N31" s="13"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="18"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="18"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="18"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="18"/>
       <c r="J54" s="18"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="J55" s="18"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
       <c r="J56" s="18"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="J57" s="18"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="J58" s="18"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="18"/>
       <c r="J59" s="18"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="18"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="J65" s="18"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="J66" s="18"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="J67" s="18"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="J69" s="18"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="J70" s="18"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="J71" s="18"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="J72" s="18"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="J73" s="18"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="J74" s="18"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="J75" s="18"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="J76" s="18"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
       <c r="J77" s="18"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="18"/>
       <c r="J78" s="18"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="18"/>
       <c r="J79" s="18"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="J80" s="18"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="18"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="18"/>
       <c r="J82" s="18"/>
     </row>
-    <row r="83">
+    <row r="83" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="18"/>
       <c r="J83" s="18"/>
     </row>
-    <row r="84">
+    <row r="84" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
       <c r="J84" s="18"/>
     </row>
-    <row r="85">
+    <row r="85" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="J85" s="18"/>
     </row>
-    <row r="86">
+    <row r="86" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="18"/>
       <c r="J86" s="18"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="18"/>
       <c r="J87" s="18"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="18"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="18"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92">
+    <row r="92" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="J92" s="18"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="18"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="18"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="18"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="18"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="18"/>
       <c r="J97" s="18"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="18"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="18"/>
       <c r="J99" s="18"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="18"/>
       <c r="J100" s="18"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="18"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102">
+    <row r="102" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="18"/>
       <c r="J102" s="18"/>
     </row>
-    <row r="103">
+    <row r="103" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="18"/>
       <c r="J103" s="18"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="18"/>
       <c r="J104" s="18"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="18"/>
       <c r="J105" s="18"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="18"/>
       <c r="J106" s="18"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="18"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="18"/>
       <c r="J108" s="18"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="18"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="18"/>
       <c r="J110" s="18"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="18"/>
       <c r="J111" s="18"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="18"/>
       <c r="J112" s="18"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="18"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="18"/>
       <c r="J114" s="18"/>
     </row>
-    <row r="115">
+    <row r="115" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="18"/>
       <c r="J115" s="18"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="18"/>
       <c r="J116" s="18"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="18"/>
       <c r="J117" s="18"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="18"/>
       <c r="J118" s="18"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="18"/>
       <c r="J119" s="18"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="18"/>
       <c r="J120" s="18"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="18"/>
       <c r="J121" s="18"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="18"/>
       <c r="J122" s="18"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="18"/>
       <c r="J123" s="18"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="18"/>
       <c r="J124" s="18"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="18"/>
       <c r="J125" s="18"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="18"/>
       <c r="J126" s="18"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="18"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="18"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="18"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="18"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="18"/>
       <c r="J131" s="18"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="18"/>
       <c r="J132" s="18"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="18"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="18"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="18"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136">
+    <row r="136" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="18"/>
       <c r="J136" s="18"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="18"/>
       <c r="J137" s="18"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="18"/>
       <c r="J138" s="18"/>
     </row>
-    <row r="139">
+    <row r="139" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="18"/>
       <c r="J139" s="18"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="18"/>
       <c r="J140" s="18"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="18"/>
       <c r="J141" s="18"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="18"/>
       <c r="J142" s="18"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="18"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="18"/>
       <c r="J144" s="18"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="18"/>
       <c r="J145" s="18"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="18"/>
       <c r="J146" s="18"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="18"/>
       <c r="J147" s="18"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="18"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="18"/>
       <c r="J149" s="18"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="18"/>
       <c r="J150" s="18"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="18"/>
       <c r="J151" s="18"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="18"/>
       <c r="J152" s="18"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="18"/>
       <c r="J153" s="18"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="18"/>
       <c r="J154" s="18"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="18"/>
       <c r="J155" s="18"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="18"/>
       <c r="J156" s="18"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="18"/>
       <c r="J157" s="18"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="18"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="18"/>
       <c r="J159" s="18"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="18"/>
       <c r="J160" s="18"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="18"/>
       <c r="J161" s="18"/>
     </row>
-    <row r="162">
+    <row r="162" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="18"/>
       <c r="J162" s="18"/>
     </row>
-    <row r="163">
+    <row r="163" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="18"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="18"/>
       <c r="J164" s="18"/>
     </row>
-    <row r="165">
+    <row r="165" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="18"/>
       <c r="J165" s="18"/>
     </row>
-    <row r="166">
+    <row r="166" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="18"/>
       <c r="J166" s="18"/>
     </row>
-    <row r="167">
+    <row r="167" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="18"/>
       <c r="J167" s="18"/>
     </row>
-    <row r="168">
+    <row r="168" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="18"/>
       <c r="J168" s="18"/>
     </row>
-    <row r="169">
+    <row r="169" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="18"/>
       <c r="J169" s="18"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="18"/>
       <c r="J170" s="18"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="18"/>
       <c r="J171" s="18"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="18"/>
       <c r="J172" s="18"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="18"/>
       <c r="J173" s="18"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="18"/>
       <c r="J174" s="18"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="18"/>
       <c r="J175" s="18"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="18"/>
       <c r="J176" s="18"/>
     </row>
-    <row r="177">
+    <row r="177" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="18"/>
       <c r="J177" s="18"/>
     </row>
-    <row r="178">
+    <row r="178" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="18"/>
       <c r="J178" s="18"/>
     </row>
-    <row r="179">
+    <row r="179" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="18"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180">
+    <row r="180" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="18"/>
       <c r="J180" s="18"/>
     </row>
-    <row r="181">
+    <row r="181" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="18"/>
       <c r="J181" s="18"/>
     </row>
-    <row r="182">
+    <row r="182" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="18"/>
       <c r="J182" s="18"/>
     </row>
-    <row r="183">
+    <row r="183" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="18"/>
       <c r="J183" s="18"/>
     </row>
-    <row r="184">
+    <row r="184" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="18"/>
       <c r="J184" s="18"/>
     </row>
-    <row r="185">
+    <row r="185" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="18"/>
       <c r="J185" s="18"/>
     </row>
-    <row r="186">
+    <row r="186" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="18"/>
       <c r="J186" s="18"/>
     </row>
-    <row r="187">
+    <row r="187" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="18"/>
       <c r="J187" s="18"/>
     </row>
-    <row r="188">
+    <row r="188" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="18"/>
       <c r="J188" s="18"/>
     </row>
-    <row r="189">
+    <row r="189" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="18"/>
       <c r="J189" s="18"/>
     </row>
-    <row r="190">
+    <row r="190" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="18"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191">
+    <row r="191" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="18"/>
       <c r="J191" s="18"/>
     </row>
-    <row r="192">
+    <row r="192" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="18"/>
       <c r="J192" s="18"/>
     </row>
-    <row r="193">
+    <row r="193" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="18"/>
       <c r="J193" s="18"/>
     </row>
-    <row r="194">
+    <row r="194" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="18"/>
       <c r="J194" s="18"/>
     </row>
-    <row r="195">
+    <row r="195" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="18"/>
       <c r="J195" s="18"/>
     </row>
-    <row r="196">
+    <row r="196" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="18"/>
       <c r="J196" s="18"/>
     </row>
-    <row r="197">
+    <row r="197" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="18"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198">
+    <row r="198" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="18"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199">
+    <row r="199" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="18"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200">
+    <row r="200" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="18"/>
       <c r="J200" s="18"/>
     </row>
-    <row r="201">
+    <row r="201" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="18"/>
       <c r="J201" s="18"/>
     </row>
-    <row r="202">
+    <row r="202" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="18"/>
       <c r="J202" s="18"/>
     </row>
-    <row r="203">
+    <row r="203" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="18"/>
       <c r="J203" s="18"/>
     </row>
-    <row r="204">
+    <row r="204" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="18"/>
       <c r="J204" s="18"/>
     </row>
-    <row r="205">
+    <row r="205" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="18"/>
       <c r="J205" s="18"/>
     </row>
-    <row r="206">
+    <row r="206" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="18"/>
       <c r="J206" s="18"/>
     </row>
-    <row r="207">
+    <row r="207" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="18"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208">
+    <row r="208" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="18"/>
       <c r="J208" s="18"/>
     </row>
-    <row r="209">
+    <row r="209" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="18"/>
       <c r="J209" s="18"/>
     </row>
-    <row r="210">
+    <row r="210" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="18"/>
       <c r="J210" s="18"/>
     </row>
-    <row r="211">
+    <row r="211" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="18"/>
       <c r="J211" s="18"/>
     </row>
-    <row r="212">
+    <row r="212" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="18"/>
       <c r="J212" s="18"/>
     </row>
-    <row r="213">
+    <row r="213" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="18"/>
       <c r="J213" s="18"/>
     </row>
-    <row r="214">
+    <row r="214" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="18"/>
       <c r="J214" s="18"/>
     </row>
-    <row r="215">
+    <row r="215" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="18"/>
       <c r="J215" s="18"/>
     </row>
-    <row r="216">
+    <row r="216" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="18"/>
       <c r="J216" s="18"/>
     </row>
-    <row r="217">
+    <row r="217" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="18"/>
       <c r="J217" s="18"/>
     </row>
-    <row r="218">
+    <row r="218" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="18"/>
       <c r="J218" s="18"/>
     </row>
-    <row r="219">
+    <row r="219" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="18"/>
       <c r="J219" s="18"/>
     </row>
-    <row r="220">
+    <row r="220" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="18"/>
       <c r="J220" s="18"/>
     </row>
-    <row r="221">
+    <row r="221" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="18"/>
       <c r="J221" s="18"/>
     </row>
-    <row r="222">
+    <row r="222" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="18"/>
       <c r="J222" s="18"/>
     </row>
-    <row r="223">
+    <row r="223" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="18"/>
       <c r="J223" s="18"/>
     </row>
-    <row r="224">
+    <row r="224" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="18"/>
       <c r="J224" s="18"/>
     </row>
-    <row r="225">
+    <row r="225" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="18"/>
       <c r="J225" s="18"/>
     </row>
-    <row r="226">
+    <row r="226" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="18"/>
       <c r="J226" s="18"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="18"/>
       <c r="J227" s="18"/>
     </row>
-    <row r="228">
+    <row r="228" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="18"/>
       <c r="J228" s="18"/>
     </row>
-    <row r="229">
+    <row r="229" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="18"/>
       <c r="J229" s="18"/>
     </row>
-    <row r="230">
+    <row r="230" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="18"/>
       <c r="J230" s="18"/>
     </row>
-    <row r="231">
+    <row r="231" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="18"/>
       <c r="J231" s="18"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="18"/>
       <c r="J232" s="18"/>
     </row>
-    <row r="233">
+    <row r="233" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="18"/>
       <c r="J233" s="18"/>
     </row>
-    <row r="234">
+    <row r="234" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="18"/>
       <c r="J234" s="18"/>
     </row>
-    <row r="235">
+    <row r="235" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="18"/>
       <c r="J235" s="18"/>
     </row>
-    <row r="236">
+    <row r="236" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="18"/>
       <c r="J236" s="18"/>
     </row>
-    <row r="237">
+    <row r="237" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="18"/>
       <c r="J237" s="18"/>
     </row>
-    <row r="238">
+    <row r="238" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="18"/>
       <c r="J238" s="18"/>
     </row>
-    <row r="239">
+    <row r="239" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="18"/>
       <c r="J239" s="18"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="18"/>
       <c r="J240" s="18"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="18"/>
       <c r="J241" s="18"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="18"/>
       <c r="J242" s="18"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="18"/>
       <c r="J243" s="18"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="18"/>
       <c r="J244" s="18"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="18"/>
       <c r="J245" s="18"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="18"/>
       <c r="J246" s="18"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="18"/>
       <c r="J247" s="18"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="18"/>
       <c r="J248" s="18"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="18"/>
       <c r="J249" s="18"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="18"/>
       <c r="J250" s="18"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="18"/>
       <c r="J251" s="18"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="18"/>
       <c r="J252" s="18"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="18"/>
       <c r="J253" s="18"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="18"/>
       <c r="J254" s="18"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="18"/>
       <c r="J255" s="18"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="18"/>
       <c r="J256" s="18"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="18"/>
       <c r="J257" s="18"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="18"/>
       <c r="J258" s="18"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="18"/>
       <c r="J259" s="18"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="18"/>
       <c r="J260" s="18"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="18"/>
       <c r="J261" s="18"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="18"/>
       <c r="J262" s="18"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="18"/>
       <c r="J263" s="18"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="18"/>
       <c r="J264" s="18"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="18"/>
       <c r="J265" s="18"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="18"/>
       <c r="J266" s="18"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="18"/>
       <c r="J267" s="18"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="18"/>
       <c r="J268" s="18"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="18"/>
       <c r="J269" s="18"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="18"/>
       <c r="J270" s="18"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="18"/>
       <c r="J271" s="18"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="18"/>
       <c r="J272" s="18"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="18"/>
       <c r="J273" s="18"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="18"/>
       <c r="J274" s="18"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="18"/>
       <c r="J275" s="18"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="18"/>
       <c r="J276" s="18"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="18"/>
       <c r="J277" s="18"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="18"/>
       <c r="J278" s="18"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="18"/>
       <c r="J279" s="18"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="18"/>
       <c r="J280" s="18"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="18"/>
       <c r="J281" s="18"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="18"/>
       <c r="J282" s="18"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="18"/>
       <c r="J283" s="18"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="18"/>
       <c r="J284" s="18"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="18"/>
       <c r="J285" s="18"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="18"/>
       <c r="J286" s="18"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="18"/>
       <c r="J287" s="18"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="18"/>
       <c r="J288" s="18"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="18"/>
       <c r="J289" s="18"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="18"/>
       <c r="J290" s="18"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="18"/>
       <c r="J291" s="18"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="18"/>
       <c r="J292" s="18"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="18"/>
       <c r="J293" s="18"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="18"/>
       <c r="J294" s="18"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="18"/>
       <c r="J295" s="18"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="18"/>
       <c r="J296" s="18"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="18"/>
       <c r="J297" s="18"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="18"/>
       <c r="J298" s="18"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="18"/>
       <c r="J299" s="18"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="18"/>
       <c r="J300" s="18"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="18"/>
       <c r="J301" s="18"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="18"/>
       <c r="J302" s="18"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="18"/>
       <c r="J303" s="18"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="18"/>
       <c r="J304" s="18"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="18"/>
       <c r="J305" s="18"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="18"/>
       <c r="J306" s="18"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="18"/>
       <c r="J307" s="18"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="18"/>
       <c r="J308" s="18"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="18"/>
       <c r="J309" s="18"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="18"/>
       <c r="J310" s="18"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="18"/>
       <c r="J311" s="18"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="18"/>
       <c r="J312" s="18"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="18"/>
       <c r="J313" s="18"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="18"/>
       <c r="J314" s="18"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="18"/>
       <c r="J315" s="18"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="18"/>
       <c r="J316" s="18"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="18"/>
       <c r="J317" s="18"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="18"/>
       <c r="J318" s="18"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="18"/>
       <c r="J319" s="18"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="18"/>
       <c r="J320" s="18"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="18"/>
       <c r="J321" s="18"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="18"/>
       <c r="J322" s="18"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="18"/>
       <c r="J323" s="18"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="18"/>
       <c r="J324" s="18"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="18"/>
       <c r="J325" s="18"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="18"/>
       <c r="J326" s="18"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="18"/>
       <c r="J327" s="18"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="18"/>
       <c r="J328" s="18"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="18"/>
       <c r="J329" s="18"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="18"/>
       <c r="J330" s="18"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="18"/>
       <c r="J331" s="18"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="18"/>
       <c r="J332" s="18"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="18"/>
       <c r="J333" s="18"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="18"/>
       <c r="J334" s="18"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="18"/>
       <c r="J335" s="18"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="18"/>
       <c r="J336" s="18"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="18"/>
       <c r="J337" s="18"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="18"/>
       <c r="J338" s="18"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="18"/>
       <c r="J339" s="18"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="18"/>
       <c r="J340" s="18"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="18"/>
       <c r="J341" s="18"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="18"/>
       <c r="J342" s="18"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="18"/>
       <c r="J343" s="18"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="18"/>
       <c r="J344" s="18"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="18"/>
       <c r="J345" s="18"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="18"/>
       <c r="J346" s="18"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="18"/>
       <c r="J347" s="18"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="18"/>
       <c r="J348" s="18"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="18"/>
       <c r="J349" s="18"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="18"/>
       <c r="J350" s="18"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="18"/>
       <c r="J351" s="18"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="18"/>
       <c r="J352" s="18"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="18"/>
       <c r="J353" s="18"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="18"/>
       <c r="J354" s="18"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="18"/>
       <c r="J355" s="18"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="18"/>
       <c r="J356" s="18"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="18"/>
       <c r="J357" s="18"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="18"/>
       <c r="J358" s="18"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="18"/>
       <c r="J359" s="18"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="18"/>
       <c r="J360" s="18"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="18"/>
       <c r="J361" s="18"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="18"/>
       <c r="J362" s="18"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="18"/>
       <c r="J363" s="18"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="18"/>
       <c r="J364" s="18"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="18"/>
       <c r="J365" s="18"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="18"/>
       <c r="J366" s="18"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="18"/>
       <c r="J367" s="18"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="18"/>
       <c r="J368" s="18"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="18"/>
       <c r="J369" s="18"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="18"/>
       <c r="J370" s="18"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="18"/>
       <c r="J371" s="18"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="18"/>
       <c r="J372" s="18"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="18"/>
       <c r="J373" s="18"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="18"/>
       <c r="J374" s="18"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="18"/>
       <c r="J375" s="18"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="18"/>
       <c r="J376" s="18"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="18"/>
       <c r="J377" s="18"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="18"/>
       <c r="J378" s="18"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="18"/>
       <c r="J379" s="18"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="18"/>
       <c r="J380" s="18"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="18"/>
       <c r="J381" s="18"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="18"/>
       <c r="J382" s="18"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="18"/>
       <c r="J383" s="18"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="18"/>
       <c r="J384" s="18"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="18"/>
       <c r="J385" s="18"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="18"/>
       <c r="J386" s="18"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="18"/>
       <c r="J387" s="18"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="18"/>
       <c r="J388" s="18"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="18"/>
       <c r="J389" s="18"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="18"/>
       <c r="J390" s="18"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="18"/>
       <c r="J391" s="18"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="18"/>
       <c r="J392" s="18"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="18"/>
       <c r="J393" s="18"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="18"/>
       <c r="J394" s="18"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="18"/>
       <c r="J395" s="18"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="18"/>
       <c r="J396" s="18"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="18"/>
       <c r="J397" s="18"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="18"/>
       <c r="J398" s="18"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="18"/>
       <c r="J399" s="18"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="18"/>
       <c r="J400" s="18"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="18"/>
       <c r="J401" s="18"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="18"/>
       <c r="J402" s="18"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="18"/>
       <c r="J403" s="18"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="18"/>
       <c r="J404" s="18"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="18"/>
       <c r="J405" s="18"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="18"/>
       <c r="J406" s="18"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="18"/>
       <c r="J407" s="18"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="18"/>
       <c r="J408" s="18"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="18"/>
       <c r="J409" s="18"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="18"/>
       <c r="J410" s="18"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="18"/>
       <c r="J411" s="18"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="18"/>
       <c r="J412" s="18"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="18"/>
       <c r="J413" s="18"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="18"/>
       <c r="J414" s="18"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="18"/>
       <c r="J415" s="18"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="18"/>
       <c r="J416" s="18"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="18"/>
       <c r="J417" s="18"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="18"/>
       <c r="J418" s="18"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="18"/>
       <c r="J419" s="18"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="18"/>
       <c r="J420" s="18"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="18"/>
       <c r="J421" s="18"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="18"/>
       <c r="J422" s="18"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="18"/>
       <c r="J423" s="18"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="18"/>
       <c r="J424" s="18"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="18"/>
       <c r="J425" s="18"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="18"/>
       <c r="J426" s="18"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="18"/>
       <c r="J427" s="18"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="18"/>
       <c r="J428" s="18"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="18"/>
       <c r="J429" s="18"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="18"/>
       <c r="J430" s="18"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="18"/>
       <c r="J431" s="18"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="18"/>
       <c r="J432" s="18"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="18"/>
       <c r="J433" s="18"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="18"/>
       <c r="J434" s="18"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="18"/>
       <c r="J435" s="18"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="18"/>
       <c r="J436" s="18"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="18"/>
       <c r="J437" s="18"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="18"/>
       <c r="J438" s="18"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="18"/>
       <c r="J439" s="18"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="18"/>
       <c r="J440" s="18"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="18"/>
       <c r="J441" s="18"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="18"/>
       <c r="J442" s="18"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="18"/>
       <c r="J443" s="18"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="18"/>
       <c r="J444" s="18"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="18"/>
       <c r="J445" s="18"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="18"/>
       <c r="J446" s="18"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="18"/>
       <c r="J447" s="18"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="18"/>
       <c r="J448" s="18"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="18"/>
       <c r="J449" s="18"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="18"/>
       <c r="J450" s="18"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="18"/>
       <c r="J451" s="18"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="18"/>
       <c r="J452" s="18"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="18"/>
       <c r="J453" s="18"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="18"/>
       <c r="J454" s="18"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="18"/>
       <c r="J455" s="18"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="18"/>
       <c r="J456" s="18"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="18"/>
       <c r="J457" s="18"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="18"/>
       <c r="J458" s="18"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="18"/>
       <c r="J459" s="18"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="18"/>
       <c r="J460" s="18"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="18"/>
       <c r="J461" s="18"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="18"/>
       <c r="J462" s="18"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="18"/>
       <c r="J463" s="18"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="18"/>
       <c r="J464" s="18"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="18"/>
       <c r="J465" s="18"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="18"/>
       <c r="J466" s="18"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="18"/>
       <c r="J467" s="18"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="18"/>
       <c r="J468" s="18"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="18"/>
       <c r="J469" s="18"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="18"/>
       <c r="J470" s="18"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="18"/>
       <c r="J471" s="18"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="18"/>
       <c r="J472" s="18"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="18"/>
       <c r="J473" s="18"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="18"/>
       <c r="J474" s="18"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="18"/>
       <c r="J475" s="18"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="18"/>
       <c r="J476" s="18"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="18"/>
       <c r="J477" s="18"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="18"/>
       <c r="J478" s="18"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="18"/>
       <c r="J479" s="18"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="18"/>
       <c r="J480" s="18"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="18"/>
       <c r="J481" s="18"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="18"/>
       <c r="J482" s="18"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="18"/>
       <c r="J483" s="18"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="18"/>
       <c r="J484" s="18"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="18"/>
       <c r="J485" s="18"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="18"/>
       <c r="J486" s="18"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="18"/>
       <c r="J487" s="18"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="18"/>
       <c r="J488" s="18"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="18"/>
       <c r="J489" s="18"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="18"/>
       <c r="J490" s="18"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="18"/>
       <c r="J491" s="18"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="18"/>
       <c r="J492" s="18"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="18"/>
       <c r="J493" s="18"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="18"/>
       <c r="J494" s="18"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="18"/>
       <c r="J495" s="18"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="18"/>
       <c r="J496" s="18"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="18"/>
       <c r="J497" s="18"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="18"/>
       <c r="J498" s="18"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="18"/>
       <c r="J499" s="18"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="18"/>
       <c r="J500" s="18"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="18"/>
       <c r="J501" s="18"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="18"/>
       <c r="J502" s="18"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="18"/>
       <c r="J503" s="18"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="18"/>
       <c r="J504" s="18"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="18"/>
       <c r="J505" s="18"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="18"/>
       <c r="J506" s="18"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="18"/>
       <c r="J507" s="18"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="18"/>
       <c r="J508" s="18"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="18"/>
       <c r="J509" s="18"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="18"/>
       <c r="J510" s="18"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="18"/>
       <c r="J511" s="18"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="18"/>
       <c r="J512" s="18"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="18"/>
       <c r="J513" s="18"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="18"/>
       <c r="J514" s="18"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="18"/>
       <c r="J515" s="18"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="18"/>
       <c r="J516" s="18"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="18"/>
       <c r="J517" s="18"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="18"/>
       <c r="J518" s="18"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="18"/>
       <c r="J519" s="18"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="18"/>
       <c r="J520" s="18"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="18"/>
       <c r="J521" s="18"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="18"/>
       <c r="J522" s="18"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="18"/>
       <c r="J523" s="18"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="18"/>
       <c r="J524" s="18"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="18"/>
       <c r="J525" s="18"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="18"/>
       <c r="J526" s="18"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="18"/>
       <c r="J527" s="18"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="18"/>
       <c r="J528" s="18"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="18"/>
       <c r="J529" s="18"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="18"/>
       <c r="J530" s="18"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="18"/>
       <c r="J531" s="18"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="18"/>
       <c r="J532" s="18"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="18"/>
       <c r="J533" s="18"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="18"/>
       <c r="J534" s="18"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="18"/>
       <c r="J535" s="18"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="18"/>
       <c r="J536" s="18"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="18"/>
       <c r="J537" s="18"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="18"/>
       <c r="J538" s="18"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="18"/>
       <c r="J539" s="18"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="18"/>
       <c r="J540" s="18"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="18"/>
       <c r="J541" s="18"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="18"/>
       <c r="J542" s="18"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="18"/>
       <c r="J543" s="18"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="18"/>
       <c r="J544" s="18"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="18"/>
       <c r="J545" s="18"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="18"/>
       <c r="J546" s="18"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="18"/>
       <c r="J547" s="18"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="18"/>
       <c r="J548" s="18"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="18"/>
       <c r="J549" s="18"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="18"/>
       <c r="J550" s="18"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="18"/>
       <c r="J551" s="18"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="18"/>
       <c r="J552" s="18"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="18"/>
       <c r="J553" s="18"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="18"/>
       <c r="J554" s="18"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="18"/>
       <c r="J555" s="18"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="18"/>
       <c r="J556" s="18"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="18"/>
       <c r="J557" s="18"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="18"/>
       <c r="J558" s="18"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="18"/>
       <c r="J559" s="18"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="18"/>
       <c r="J560" s="18"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="18"/>
       <c r="J561" s="18"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="18"/>
       <c r="J562" s="18"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="18"/>
       <c r="J563" s="18"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="18"/>
       <c r="J564" s="18"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="18"/>
       <c r="J565" s="18"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="18"/>
       <c r="J566" s="18"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="18"/>
       <c r="J567" s="18"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="18"/>
       <c r="J568" s="18"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="18"/>
       <c r="J569" s="18"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="18"/>
       <c r="J570" s="18"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="18"/>
       <c r="J571" s="18"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="18"/>
       <c r="J572" s="18"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="18"/>
       <c r="J573" s="18"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="18"/>
       <c r="J574" s="18"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="18"/>
       <c r="J575" s="18"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="18"/>
       <c r="J576" s="18"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="18"/>
       <c r="J577" s="18"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="18"/>
       <c r="J578" s="18"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="18"/>
       <c r="J579" s="18"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="18"/>
       <c r="J580" s="18"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="18"/>
       <c r="J581" s="18"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="18"/>
       <c r="J582" s="18"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="18"/>
       <c r="J583" s="18"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="18"/>
       <c r="J584" s="18"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="18"/>
       <c r="J585" s="18"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="18"/>
       <c r="J586" s="18"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="18"/>
       <c r="J587" s="18"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="18"/>
       <c r="J588" s="18"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="18"/>
       <c r="J589" s="18"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="18"/>
       <c r="J590" s="18"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="18"/>
       <c r="J591" s="18"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="18"/>
       <c r="J592" s="18"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="18"/>
       <c r="J593" s="18"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="18"/>
       <c r="J594" s="18"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="18"/>
       <c r="J595" s="18"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="18"/>
       <c r="J596" s="18"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="18"/>
       <c r="J597" s="18"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="18"/>
       <c r="J598" s="18"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="18"/>
       <c r="J599" s="18"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="18"/>
       <c r="J600" s="18"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="18"/>
       <c r="J601" s="18"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="18"/>
       <c r="J602" s="18"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="18"/>
       <c r="J603" s="18"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="18"/>
       <c r="J604" s="18"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="18"/>
       <c r="J605" s="18"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="18"/>
       <c r="J606" s="18"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="18"/>
       <c r="J607" s="18"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="18"/>
       <c r="J608" s="18"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="18"/>
       <c r="J609" s="18"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="18"/>
       <c r="J610" s="18"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="18"/>
       <c r="J611" s="18"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="18"/>
       <c r="J612" s="18"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="18"/>
       <c r="J613" s="18"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="18"/>
       <c r="J614" s="18"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="18"/>
       <c r="J615" s="18"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="18"/>
       <c r="J616" s="18"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="18"/>
       <c r="J617" s="18"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="18"/>
       <c r="J618" s="18"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="18"/>
       <c r="J619" s="18"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="18"/>
       <c r="J620" s="18"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="18"/>
       <c r="J621" s="18"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="18"/>
       <c r="J622" s="18"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="18"/>
       <c r="J623" s="18"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="18"/>
       <c r="J624" s="18"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="18"/>
       <c r="J625" s="18"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="18"/>
       <c r="J626" s="18"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="18"/>
       <c r="J627" s="18"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="18"/>
       <c r="J628" s="18"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="18"/>
       <c r="J629" s="18"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="18"/>
       <c r="J630" s="18"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="18"/>
       <c r="J631" s="18"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="18"/>
       <c r="J632" s="18"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="18"/>
       <c r="J633" s="18"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="18"/>
       <c r="J634" s="18"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="18"/>
       <c r="J635" s="18"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="18"/>
       <c r="J636" s="18"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="18"/>
       <c r="J637" s="18"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="18"/>
       <c r="J638" s="18"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="18"/>
       <c r="J639" s="18"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="18"/>
       <c r="J640" s="18"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="18"/>
       <c r="J641" s="18"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="18"/>
       <c r="J642" s="18"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="18"/>
       <c r="J643" s="18"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="18"/>
       <c r="J644" s="18"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="18"/>
       <c r="J645" s="18"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="18"/>
       <c r="J646" s="18"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="18"/>
       <c r="J647" s="18"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="18"/>
       <c r="J648" s="18"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="18"/>
       <c r="J649" s="18"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="18"/>
       <c r="J650" s="18"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="18"/>
       <c r="J651" s="18"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="18"/>
       <c r="J652" s="18"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="18"/>
       <c r="J653" s="18"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="18"/>
       <c r="J654" s="18"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="18"/>
       <c r="J655" s="18"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="18"/>
       <c r="J656" s="18"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="18"/>
       <c r="J657" s="18"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="18"/>
       <c r="J658" s="18"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="18"/>
       <c r="J659" s="18"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="18"/>
       <c r="J660" s="18"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="18"/>
       <c r="J661" s="18"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="18"/>
       <c r="J662" s="18"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="18"/>
       <c r="J663" s="18"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="18"/>
       <c r="J664" s="18"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="18"/>
       <c r="J665" s="18"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="18"/>
       <c r="J666" s="18"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="18"/>
       <c r="J667" s="18"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="18"/>
       <c r="J668" s="18"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="18"/>
       <c r="J669" s="18"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="18"/>
       <c r="J670" s="18"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="18"/>
       <c r="J671" s="18"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="18"/>
       <c r="J672" s="18"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="18"/>
       <c r="J673" s="18"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="18"/>
       <c r="J674" s="18"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="18"/>
       <c r="J675" s="18"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="18"/>
       <c r="J676" s="18"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="18"/>
       <c r="J677" s="18"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="18"/>
       <c r="J678" s="18"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="18"/>
       <c r="J679" s="18"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="18"/>
       <c r="J680" s="18"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="18"/>
       <c r="J681" s="18"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="18"/>
       <c r="J682" s="18"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="18"/>
       <c r="J683" s="18"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="18"/>
       <c r="J684" s="18"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="18"/>
       <c r="J685" s="18"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="18"/>
       <c r="J686" s="18"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="18"/>
       <c r="J687" s="18"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="18"/>
       <c r="J688" s="18"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="18"/>
       <c r="J689" s="18"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="18"/>
       <c r="J690" s="18"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="18"/>
       <c r="J691" s="18"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="18"/>
       <c r="J692" s="18"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="18"/>
       <c r="J693" s="18"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="18"/>
       <c r="J694" s="18"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="18"/>
       <c r="J695" s="18"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="18"/>
       <c r="J696" s="18"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="18"/>
       <c r="J697" s="18"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="18"/>
       <c r="J698" s="18"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="18"/>
       <c r="J699" s="18"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="18"/>
       <c r="J700" s="18"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="18"/>
       <c r="J701" s="18"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="18"/>
       <c r="J702" s="18"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="18"/>
       <c r="J703" s="18"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="18"/>
       <c r="J704" s="18"/>
     </row>
-    <row r="705">
+    <row r="705" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="18"/>
       <c r="J705" s="18"/>
     </row>
-    <row r="706">
+    <row r="706" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="18"/>
       <c r="J706" s="18"/>
     </row>
-    <row r="707">
+    <row r="707" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="18"/>
       <c r="J707" s="18"/>
     </row>
-    <row r="708">
+    <row r="708" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="18"/>
       <c r="J708" s="18"/>
     </row>
-    <row r="709">
+    <row r="709" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="18"/>
       <c r="J709" s="18"/>
     </row>
-    <row r="710">
+    <row r="710" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="18"/>
       <c r="J710" s="18"/>
     </row>
-    <row r="711">
+    <row r="711" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="18"/>
       <c r="J711" s="18"/>
     </row>
-    <row r="712">
+    <row r="712" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="18"/>
       <c r="J712" s="18"/>
     </row>
-    <row r="713">
+    <row r="713" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="18"/>
       <c r="J713" s="18"/>
     </row>
-    <row r="714">
+    <row r="714" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="18"/>
       <c r="J714" s="18"/>
     </row>
-    <row r="715">
+    <row r="715" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="18"/>
       <c r="J715" s="18"/>
     </row>
-    <row r="716">
+    <row r="716" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="18"/>
       <c r="J716" s="18"/>
     </row>
-    <row r="717">
+    <row r="717" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="18"/>
       <c r="J717" s="18"/>
     </row>
-    <row r="718">
+    <row r="718" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="18"/>
       <c r="J718" s="18"/>
     </row>
-    <row r="719">
+    <row r="719" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="18"/>
       <c r="J719" s="18"/>
     </row>
-    <row r="720">
+    <row r="720" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="18"/>
       <c r="J720" s="18"/>
     </row>
-    <row r="721">
+    <row r="721" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="18"/>
       <c r="J721" s="18"/>
     </row>
-    <row r="722">
+    <row r="722" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="18"/>
       <c r="J722" s="18"/>
     </row>
-    <row r="723">
+    <row r="723" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="18"/>
       <c r="J723" s="18"/>
     </row>
-    <row r="724">
+    <row r="724" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="18"/>
       <c r="J724" s="18"/>
     </row>
-    <row r="725">
+    <row r="725" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="18"/>
       <c r="J725" s="18"/>
     </row>
-    <row r="726">
+    <row r="726" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="18"/>
       <c r="J726" s="18"/>
     </row>
-    <row r="727">
+    <row r="727" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="18"/>
       <c r="J727" s="18"/>
     </row>
-    <row r="728">
+    <row r="728" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="18"/>
       <c r="J728" s="18"/>
     </row>
-    <row r="729">
+    <row r="729" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="18"/>
       <c r="J729" s="18"/>
     </row>
-    <row r="730">
+    <row r="730" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="18"/>
       <c r="J730" s="18"/>
     </row>
-    <row r="731">
+    <row r="731" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="18"/>
       <c r="J731" s="18"/>
     </row>
-    <row r="732">
+    <row r="732" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="18"/>
       <c r="J732" s="18"/>
     </row>
-    <row r="733">
+    <row r="733" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="18"/>
       <c r="J733" s="18"/>
     </row>
-    <row r="734">
+    <row r="734" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="18"/>
       <c r="J734" s="18"/>
     </row>
-    <row r="735">
+    <row r="735" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="18"/>
       <c r="J735" s="18"/>
     </row>
-    <row r="736">
+    <row r="736" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="18"/>
       <c r="J736" s="18"/>
     </row>
-    <row r="737">
+    <row r="737" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="18"/>
       <c r="J737" s="18"/>
     </row>
-    <row r="738">
+    <row r="738" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="18"/>
       <c r="J738" s="18"/>
     </row>
-    <row r="739">
+    <row r="739" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="18"/>
       <c r="J739" s="18"/>
     </row>
-    <row r="740">
+    <row r="740" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="18"/>
       <c r="J740" s="18"/>
     </row>
-    <row r="741">
+    <row r="741" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="18"/>
       <c r="J741" s="18"/>
     </row>
-    <row r="742">
+    <row r="742" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="18"/>
       <c r="J742" s="18"/>
     </row>
-    <row r="743">
+    <row r="743" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="18"/>
       <c r="J743" s="18"/>
     </row>
-    <row r="744">
+    <row r="744" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="18"/>
       <c r="J744" s="18"/>
     </row>
-    <row r="745">
+    <row r="745" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="18"/>
       <c r="J745" s="18"/>
     </row>
-    <row r="746">
+    <row r="746" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="18"/>
       <c r="J746" s="18"/>
     </row>
-    <row r="747">
+    <row r="747" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="18"/>
       <c r="J747" s="18"/>
     </row>
-    <row r="748">
+    <row r="748" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="18"/>
       <c r="J748" s="18"/>
     </row>
-    <row r="749">
+    <row r="749" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="18"/>
       <c r="J749" s="18"/>
     </row>
-    <row r="750">
+    <row r="750" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="18"/>
       <c r="J750" s="18"/>
     </row>
-    <row r="751">
+    <row r="751" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="18"/>
       <c r="J751" s="18"/>
     </row>
-    <row r="752">
+    <row r="752" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="18"/>
       <c r="J752" s="18"/>
     </row>
-    <row r="753">
+    <row r="753" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="18"/>
       <c r="J753" s="18"/>
     </row>
-    <row r="754">
+    <row r="754" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="18"/>
       <c r="J754" s="18"/>
     </row>
-    <row r="755">
+    <row r="755" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="18"/>
       <c r="J755" s="18"/>
     </row>
-    <row r="756">
+    <row r="756" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="18"/>
       <c r="J756" s="18"/>
     </row>
-    <row r="757">
+    <row r="757" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="18"/>
       <c r="J757" s="18"/>
     </row>
-    <row r="758">
+    <row r="758" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="18"/>
       <c r="J758" s="18"/>
     </row>
-    <row r="759">
+    <row r="759" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="18"/>
       <c r="J759" s="18"/>
     </row>
-    <row r="760">
+    <row r="760" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="18"/>
       <c r="J760" s="18"/>
     </row>
-    <row r="761">
+    <row r="761" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="18"/>
       <c r="J761" s="18"/>
     </row>
-    <row r="762">
+    <row r="762" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="18"/>
       <c r="J762" s="18"/>
     </row>
-    <row r="763">
+    <row r="763" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="18"/>
       <c r="J763" s="18"/>
     </row>
-    <row r="764">
+    <row r="764" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="18"/>
       <c r="J764" s="18"/>
     </row>
-    <row r="765">
+    <row r="765" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="18"/>
       <c r="J765" s="18"/>
     </row>
-    <row r="766">
+    <row r="766" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="18"/>
       <c r="J766" s="18"/>
     </row>
-    <row r="767">
+    <row r="767" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="18"/>
       <c r="J767" s="18"/>
     </row>
-    <row r="768">
+    <row r="768" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="18"/>
       <c r="J768" s="18"/>
     </row>
-    <row r="769">
+    <row r="769" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="18"/>
       <c r="J769" s="18"/>
     </row>
-    <row r="770">
+    <row r="770" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="18"/>
       <c r="J770" s="18"/>
     </row>
-    <row r="771">
+    <row r="771" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="18"/>
       <c r="J771" s="18"/>
     </row>
-    <row r="772">
+    <row r="772" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="18"/>
       <c r="J772" s="18"/>
     </row>
-    <row r="773">
+    <row r="773" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="18"/>
       <c r="J773" s="18"/>
     </row>
-    <row r="774">
+    <row r="774" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="18"/>
       <c r="J774" s="18"/>
     </row>
-    <row r="775">
+    <row r="775" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="18"/>
       <c r="J775" s="18"/>
     </row>
-    <row r="776">
+    <row r="776" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="18"/>
       <c r="J776" s="18"/>
     </row>
-    <row r="777">
+    <row r="777" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="18"/>
       <c r="J777" s="18"/>
     </row>
-    <row r="778">
+    <row r="778" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="18"/>
       <c r="J778" s="18"/>
     </row>
-    <row r="779">
+    <row r="779" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="18"/>
       <c r="J779" s="18"/>
     </row>
-    <row r="780">
+    <row r="780" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="18"/>
       <c r="J780" s="18"/>
     </row>
-    <row r="781">
+    <row r="781" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="18"/>
       <c r="J781" s="18"/>
     </row>
-    <row r="782">
+    <row r="782" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="18"/>
       <c r="J782" s="18"/>
     </row>
-    <row r="783">
+    <row r="783" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="18"/>
       <c r="J783" s="18"/>
     </row>
-    <row r="784">
+    <row r="784" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="18"/>
       <c r="J784" s="18"/>
     </row>
-    <row r="785">
+    <row r="785" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="18"/>
       <c r="J785" s="18"/>
     </row>
-    <row r="786">
+    <row r="786" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="18"/>
       <c r="J786" s="18"/>
     </row>
-    <row r="787">
+    <row r="787" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="18"/>
       <c r="J787" s="18"/>
     </row>
-    <row r="788">
+    <row r="788" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="18"/>
       <c r="J788" s="18"/>
     </row>
-    <row r="789">
+    <row r="789" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="18"/>
       <c r="J789" s="18"/>
     </row>
-    <row r="790">
+    <row r="790" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="18"/>
       <c r="J790" s="18"/>
     </row>
-    <row r="791">
+    <row r="791" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="18"/>
       <c r="J791" s="18"/>
     </row>
-    <row r="792">
+    <row r="792" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="18"/>
       <c r="J792" s="18"/>
     </row>
-    <row r="793">
+    <row r="793" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="18"/>
       <c r="J793" s="18"/>
     </row>
-    <row r="794">
+    <row r="794" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="18"/>
       <c r="J794" s="18"/>
     </row>
-    <row r="795">
+    <row r="795" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="18"/>
       <c r="J795" s="18"/>
     </row>
-    <row r="796">
+    <row r="796" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="18"/>
       <c r="J796" s="18"/>
     </row>
-    <row r="797">
+    <row r="797" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="18"/>
       <c r="J797" s="18"/>
     </row>
-    <row r="798">
+    <row r="798" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="18"/>
       <c r="J798" s="18"/>
     </row>
-    <row r="799">
+    <row r="799" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="18"/>
       <c r="J799" s="18"/>
     </row>
-    <row r="800">
+    <row r="800" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="18"/>
       <c r="J800" s="18"/>
     </row>
-    <row r="801">
+    <row r="801" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="18"/>
       <c r="J801" s="18"/>
     </row>
-    <row r="802">
+    <row r="802" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="18"/>
       <c r="J802" s="18"/>
     </row>
-    <row r="803">
+    <row r="803" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="18"/>
       <c r="J803" s="18"/>
     </row>
-    <row r="804">
+    <row r="804" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="18"/>
       <c r="J804" s="18"/>
     </row>
-    <row r="805">
+    <row r="805" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="18"/>
       <c r="J805" s="18"/>
     </row>
-    <row r="806">
+    <row r="806" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="18"/>
       <c r="J806" s="18"/>
     </row>
-    <row r="807">
+    <row r="807" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="18"/>
       <c r="J807" s="18"/>
     </row>
-    <row r="808">
+    <row r="808" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="18"/>
       <c r="J808" s="18"/>
     </row>
-    <row r="809">
+    <row r="809" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="18"/>
       <c r="J809" s="18"/>
     </row>
-    <row r="810">
+    <row r="810" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="18"/>
       <c r="J810" s="18"/>
     </row>
-    <row r="811">
+    <row r="811" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="18"/>
       <c r="J811" s="18"/>
     </row>
-    <row r="812">
+    <row r="812" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="18"/>
       <c r="J812" s="18"/>
     </row>
-    <row r="813">
+    <row r="813" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="18"/>
       <c r="J813" s="18"/>
     </row>
-    <row r="814">
+    <row r="814" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="18"/>
       <c r="J814" s="18"/>
     </row>
-    <row r="815">
+    <row r="815" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="18"/>
       <c r="J815" s="18"/>
     </row>
-    <row r="816">
+    <row r="816" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="18"/>
       <c r="J816" s="18"/>
     </row>
-    <row r="817">
+    <row r="817" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="18"/>
       <c r="J817" s="18"/>
     </row>
-    <row r="818">
+    <row r="818" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="18"/>
       <c r="J818" s="18"/>
     </row>
-    <row r="819">
+    <row r="819" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="18"/>
       <c r="J819" s="18"/>
     </row>
-    <row r="820">
+    <row r="820" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="18"/>
       <c r="J820" s="18"/>
     </row>
-    <row r="821">
+    <row r="821" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="18"/>
       <c r="J821" s="18"/>
     </row>
-    <row r="822">
+    <row r="822" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="18"/>
       <c r="J822" s="18"/>
     </row>
-    <row r="823">
+    <row r="823" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="18"/>
       <c r="J823" s="18"/>
     </row>
-    <row r="824">
+    <row r="824" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="18"/>
       <c r="J824" s="18"/>
     </row>
-    <row r="825">
+    <row r="825" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="18"/>
       <c r="J825" s="18"/>
     </row>
-    <row r="826">
+    <row r="826" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="18"/>
       <c r="J826" s="18"/>
     </row>
-    <row r="827">
+    <row r="827" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="18"/>
       <c r="J827" s="18"/>
     </row>
-    <row r="828">
+    <row r="828" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="18"/>
       <c r="J828" s="18"/>
     </row>
-    <row r="829">
+    <row r="829" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="18"/>
       <c r="J829" s="18"/>
     </row>
-    <row r="830">
+    <row r="830" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="18"/>
       <c r="J830" s="18"/>
     </row>
-    <row r="831">
+    <row r="831" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="18"/>
       <c r="J831" s="18"/>
     </row>
-    <row r="832">
+    <row r="832" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="18"/>
       <c r="J832" s="18"/>
     </row>
-    <row r="833">
+    <row r="833" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="18"/>
       <c r="J833" s="18"/>
     </row>
-    <row r="834">
+    <row r="834" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="18"/>
       <c r="J834" s="18"/>
     </row>
-    <row r="835">
+    <row r="835" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="18"/>
       <c r="J835" s="18"/>
     </row>
-    <row r="836">
+    <row r="836" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="18"/>
       <c r="J836" s="18"/>
     </row>
-    <row r="837">
+    <row r="837" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="18"/>
       <c r="J837" s="18"/>
     </row>
-    <row r="838">
+    <row r="838" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="18"/>
       <c r="J838" s="18"/>
     </row>
-    <row r="839">
+    <row r="839" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="18"/>
       <c r="J839" s="18"/>
     </row>
-    <row r="840">
+    <row r="840" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="18"/>
       <c r="J840" s="18"/>
     </row>
-    <row r="841">
+    <row r="841" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="18"/>
       <c r="J841" s="18"/>
     </row>
-    <row r="842">
+    <row r="842" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="18"/>
       <c r="J842" s="18"/>
     </row>
-    <row r="843">
+    <row r="843" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="18"/>
       <c r="J843" s="18"/>
     </row>
-    <row r="844">
+    <row r="844" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="18"/>
       <c r="J844" s="18"/>
     </row>
-    <row r="845">
+    <row r="845" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="18"/>
       <c r="J845" s="18"/>
     </row>
-    <row r="846">
+    <row r="846" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="18"/>
       <c r="J846" s="18"/>
     </row>
-    <row r="847">
+    <row r="847" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="18"/>
       <c r="J847" s="18"/>
     </row>
-    <row r="848">
+    <row r="848" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="18"/>
       <c r="J848" s="18"/>
     </row>
-    <row r="849">
+    <row r="849" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="18"/>
       <c r="J849" s="18"/>
     </row>
-    <row r="850">
+    <row r="850" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="18"/>
       <c r="J850" s="18"/>
     </row>
-    <row r="851">
+    <row r="851" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="18"/>
       <c r="J851" s="18"/>
     </row>
-    <row r="852">
+    <row r="852" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="18"/>
       <c r="J852" s="18"/>
     </row>
-    <row r="853">
+    <row r="853" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="18"/>
       <c r="J853" s="18"/>
     </row>
-    <row r="854">
+    <row r="854" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="18"/>
       <c r="J854" s="18"/>
     </row>
-    <row r="855">
+    <row r="855" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="18"/>
       <c r="J855" s="18"/>
     </row>
-    <row r="856">
+    <row r="856" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="18"/>
       <c r="J856" s="18"/>
     </row>
-    <row r="857">
+    <row r="857" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="18"/>
       <c r="J857" s="18"/>
     </row>
-    <row r="858">
+    <row r="858" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="18"/>
       <c r="J858" s="18"/>
     </row>
-    <row r="859">
+    <row r="859" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="18"/>
       <c r="J859" s="18"/>
     </row>
-    <row r="860">
+    <row r="860" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="18"/>
       <c r="J860" s="18"/>
     </row>
-    <row r="861">
+    <row r="861" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="18"/>
       <c r="J861" s="18"/>
     </row>
-    <row r="862">
+    <row r="862" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="18"/>
       <c r="J862" s="18"/>
     </row>
-    <row r="863">
+    <row r="863" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="18"/>
       <c r="J863" s="18"/>
     </row>
-    <row r="864">
+    <row r="864" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="18"/>
       <c r="J864" s="18"/>
     </row>
-    <row r="865">
+    <row r="865" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="18"/>
       <c r="J865" s="18"/>
     </row>
-    <row r="866">
+    <row r="866" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="18"/>
       <c r="J866" s="18"/>
     </row>
-    <row r="867">
+    <row r="867" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="18"/>
       <c r="J867" s="18"/>
     </row>
-    <row r="868">
+    <row r="868" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="18"/>
       <c r="J868" s="18"/>
     </row>
-    <row r="869">
+    <row r="869" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="18"/>
       <c r="J869" s="18"/>
     </row>
-    <row r="870">
+    <row r="870" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="18"/>
       <c r="J870" s="18"/>
     </row>
-    <row r="871">
+    <row r="871" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="18"/>
       <c r="J871" s="18"/>
     </row>
-    <row r="872">
+    <row r="872" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="18"/>
       <c r="J872" s="18"/>
     </row>
-    <row r="873">
+    <row r="873" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="18"/>
       <c r="J873" s="18"/>
     </row>
-    <row r="874">
+    <row r="874" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="18"/>
       <c r="J874" s="18"/>
     </row>
-    <row r="875">
+    <row r="875" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="18"/>
       <c r="J875" s="18"/>
     </row>
-    <row r="876">
+    <row r="876" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="18"/>
       <c r="J876" s="18"/>
     </row>
-    <row r="877">
+    <row r="877" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="18"/>
       <c r="J877" s="18"/>
     </row>
-    <row r="878">
+    <row r="878" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="18"/>
       <c r="J878" s="18"/>
     </row>
-    <row r="879">
+    <row r="879" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="18"/>
       <c r="J879" s="18"/>
     </row>
-    <row r="880">
+    <row r="880" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="18"/>
       <c r="J880" s="18"/>
     </row>
-    <row r="881">
+    <row r="881" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="18"/>
       <c r="J881" s="18"/>
     </row>
-    <row r="882">
+    <row r="882" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="18"/>
       <c r="J882" s="18"/>
     </row>
-    <row r="883">
+    <row r="883" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="18"/>
       <c r="J883" s="18"/>
     </row>
-    <row r="884">
+    <row r="884" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="18"/>
       <c r="J884" s="18"/>
     </row>
-    <row r="885">
+    <row r="885" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="18"/>
       <c r="J885" s="18"/>
     </row>
-    <row r="886">
+    <row r="886" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="18"/>
       <c r="J886" s="18"/>
     </row>
-    <row r="887">
+    <row r="887" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="18"/>
       <c r="J887" s="18"/>
     </row>
-    <row r="888">
+    <row r="888" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="18"/>
       <c r="J888" s="18"/>
     </row>
-    <row r="889">
+    <row r="889" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="18"/>
       <c r="J889" s="18"/>
     </row>
-    <row r="890">
+    <row r="890" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="18"/>
       <c r="J890" s="18"/>
     </row>
-    <row r="891">
+    <row r="891" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="18"/>
       <c r="J891" s="18"/>
     </row>
-    <row r="892">
+    <row r="892" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="18"/>
       <c r="J892" s="18"/>
     </row>
-    <row r="893">
+    <row r="893" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="18"/>
       <c r="J893" s="18"/>
     </row>
-    <row r="894">
+    <row r="894" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="18"/>
       <c r="J894" s="18"/>
     </row>
-    <row r="895">
+    <row r="895" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="18"/>
       <c r="J895" s="18"/>
     </row>
-    <row r="896">
+    <row r="896" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="18"/>
       <c r="J896" s="18"/>
     </row>
-    <row r="897">
+    <row r="897" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="18"/>
       <c r="J897" s="18"/>
     </row>
-    <row r="898">
+    <row r="898" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="18"/>
       <c r="J898" s="18"/>
     </row>
-    <row r="899">
+    <row r="899" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="18"/>
       <c r="J899" s="18"/>
     </row>
-    <row r="900">
+    <row r="900" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="18"/>
       <c r="J900" s="18"/>
     </row>
-    <row r="901">
+    <row r="901" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="18"/>
       <c r="J901" s="18"/>
     </row>
-    <row r="902">
+    <row r="902" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="18"/>
       <c r="J902" s="18"/>
     </row>
-    <row r="903">
+    <row r="903" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="18"/>
       <c r="J903" s="18"/>
     </row>
-    <row r="904">
+    <row r="904" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="18"/>
       <c r="J904" s="18"/>
     </row>
-    <row r="905">
+    <row r="905" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="18"/>
       <c r="J905" s="18"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H699"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4354,15 +4632,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17">
-        <v>507901.0</v>
+        <v>507901</v>
       </c>
       <c r="C2" s="12">
-        <v>4.251099609599E12</v>
+        <v>4251099609599</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>12</v>
@@ -4371,25 +4649,25 @@
         <v>1.55</v>
       </c>
       <c r="F2" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G2" s="13">
-        <v>1046.0</v>
+        <v>1046</v>
       </c>
       <c r="H2" s="20" t="str">
-        <f t="shared" ref="H2:H30" si="1">if(E2&gt;10, "Expensive", "Cheap")</f>
+        <f>IF(E2&gt;10, "Expensive", "Cheap")</f>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="17">
-        <v>507879.0</v>
+        <v>507879</v>
       </c>
       <c r="C3" s="12">
-        <v>4.251099609612E12</v>
+        <v>4251099609612</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>12</v>
@@ -4398,25 +4676,25 @@
         <v>1.55</v>
       </c>
       <c r="F3" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G3" s="13">
-        <v>1270.0</v>
+        <v>1270</v>
       </c>
       <c r="H3" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H2:H30" si="0">IF(E3&gt;10, "Expensive", "Cheap")</f>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="17">
-        <v>507894.0</v>
+        <v>507894</v>
       </c>
       <c r="C4" s="12">
-        <v>4.251099609674E12</v>
+        <v>4251099609674</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>12</v>
@@ -4425,22 +4703,22 @@
         <v>1.55</v>
       </c>
       <c r="F4" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G4" s="13">
-        <v>1270.0</v>
+        <v>1270</v>
       </c>
       <c r="H4" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="17">
-        <v>810675.0</v>
+        <v>810675</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="17" t="s">
@@ -4450,25 +4728,25 @@
         <v>0.95</v>
       </c>
       <c r="F5" s="13">
-        <v>1728.0</v>
+        <v>1728</v>
       </c>
       <c r="G5" s="13">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="H5" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="17">
-        <v>325396.0</v>
+        <v>325396</v>
       </c>
       <c r="C6" s="12">
-        <v>4.251099600817E12</v>
+        <v>4251099600817</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
@@ -4477,25 +4755,25 @@
         <v>0.95</v>
       </c>
       <c r="F6" s="13">
-        <v>1728.0</v>
+        <v>1728</v>
       </c>
       <c r="G6" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H6" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="17">
-        <v>325384.0</v>
+        <v>325384</v>
       </c>
       <c r="C7" s="12">
-        <v>4.251099600831E12</v>
+        <v>4251099600831</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>12</v>
@@ -4504,25 +4782,25 @@
         <v>0.95</v>
       </c>
       <c r="F7" s="13">
-        <v>1728.0</v>
+        <v>1728</v>
       </c>
       <c r="G7" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H7" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="17">
-        <v>325392.0</v>
+        <v>325392</v>
       </c>
       <c r="C8" s="12">
-        <v>4.251099612148E12</v>
+        <v>4251099612148</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>12</v>
@@ -4531,25 +4809,25 @@
         <v>0.95</v>
       </c>
       <c r="F8" s="13">
-        <v>1728.0</v>
+        <v>1728</v>
       </c>
       <c r="G8" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H8" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="17">
-        <v>594367.0</v>
+        <v>594367</v>
       </c>
       <c r="C9" s="12">
-        <v>4.251099612568E12</v>
+        <v>4251099612568</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>12</v>
@@ -4558,25 +4836,25 @@
         <v>1.85</v>
       </c>
       <c r="F9" s="13">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="G9" s="13">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="H9" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="17">
-        <v>594369.0</v>
+        <v>594369</v>
       </c>
       <c r="C10" s="12">
-        <v>4.251099612582E12</v>
+        <v>4251099612582</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>12</v>
@@ -4585,25 +4863,25 @@
         <v>1.85</v>
       </c>
       <c r="F10" s="13">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="G10" s="13">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="H10" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="17">
-        <v>520710.0</v>
+        <v>520710</v>
       </c>
       <c r="C11" s="12">
-        <v>4.251099610144E12</v>
+        <v>4251099610144</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>12</v>
@@ -4612,25 +4890,25 @@
         <v>1.25</v>
       </c>
       <c r="F11" s="13">
-        <v>2100.0</v>
+        <v>2100</v>
       </c>
       <c r="G11" s="13">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="H11" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="17">
-        <v>462624.0</v>
+        <v>462624</v>
       </c>
       <c r="C12" s="12">
-        <v>4.251099601609E12</v>
+        <v>4251099601609</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>12</v>
@@ -4639,25 +4917,25 @@
         <v>1.25</v>
       </c>
       <c r="F12" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H12" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="17">
-        <v>565720.0</v>
+        <v>565720</v>
       </c>
       <c r="C13" s="12">
-        <v>4.25109961137E12</v>
+        <v>4251099611370</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>12</v>
@@ -4666,25 +4944,25 @@
         <v>2.25</v>
       </c>
       <c r="F13" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G13" s="13">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="H13" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="17">
-        <v>455357.0</v>
+        <v>455357</v>
       </c>
       <c r="C14" s="12">
-        <v>4.251099603788E12</v>
+        <v>4251099603788</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>12</v>
@@ -4693,25 +4971,25 @@
         <v>0.45</v>
       </c>
       <c r="F14" s="13">
-        <v>11664.0</v>
+        <v>11664</v>
       </c>
       <c r="G14" s="13">
-        <v>1041.0</v>
+        <v>1041</v>
       </c>
       <c r="H14" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="17">
-        <v>455349.0</v>
+        <v>455349</v>
       </c>
       <c r="C15" s="12">
-        <v>4.251099601586E12</v>
+        <v>4251099601586</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>12</v>
@@ -4720,25 +4998,25 @@
         <v>1.25</v>
       </c>
       <c r="F15" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H15" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="17">
-        <v>455346.0</v>
+        <v>455346</v>
       </c>
       <c r="C16" s="12">
-        <v>4.251099601203E12</v>
+        <v>4251099601203</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>12</v>
@@ -4747,25 +5025,25 @@
         <v>1.25</v>
       </c>
       <c r="F16" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H16" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="17">
-        <v>455358.0</v>
+        <v>455358</v>
       </c>
       <c r="C17" s="12">
-        <v>4.251099603825E12</v>
+        <v>4251099603825</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>12</v>
@@ -4774,25 +5052,25 @@
         <v>0.45</v>
       </c>
       <c r="F17" s="13">
-        <v>11664.0</v>
+        <v>11664</v>
       </c>
       <c r="G17" s="13">
-        <v>1041.0</v>
+        <v>1041</v>
       </c>
       <c r="H17" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="17">
-        <v>565719.0</v>
+        <v>565719</v>
       </c>
       <c r="C18" s="12">
-        <v>4.251099611417E12</v>
+        <v>4251099611417</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>12</v>
@@ -4801,25 +5079,25 @@
         <v>2.25</v>
       </c>
       <c r="F18" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G18" s="13">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="H18" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="17">
-        <v>455350.0</v>
+        <v>455350</v>
       </c>
       <c r="C19" s="12">
-        <v>4.251099601623E12</v>
+        <v>4251099601623</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>12</v>
@@ -4828,52 +5106,52 @@
         <v>1.25</v>
       </c>
       <c r="F19" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H19" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="17">
-        <v>565865.0</v>
+        <v>565865</v>
       </c>
       <c r="C20" s="12">
-        <v>4.251099611042E12</v>
+        <v>4251099611042</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="19">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F20" s="13">
-        <v>5120.0</v>
+        <v>5120</v>
       </c>
       <c r="G20" s="13">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="H20" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="17">
-        <v>498503.0</v>
+        <v>498503</v>
       </c>
       <c r="C21" s="12">
-        <v>4.251099607212E12</v>
+        <v>4251099607212</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>12</v>
@@ -4882,25 +5160,25 @@
         <v>0.45</v>
       </c>
       <c r="F21" s="13">
-        <v>11664.0</v>
+        <v>11664</v>
       </c>
       <c r="G21" s="13">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="H21" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="17">
-        <v>462612.0</v>
+        <v>462612</v>
       </c>
       <c r="C22" s="12">
-        <v>4.251099601661E12</v>
+        <v>4251099601661</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>12</v>
@@ -4909,25 +5187,25 @@
         <v>1.25</v>
       </c>
       <c r="F22" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H22" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="17">
-        <v>565721.0</v>
+        <v>565721</v>
       </c>
       <c r="C23" s="12">
-        <v>4.251099611431E12</v>
+        <v>4251099611431</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>12</v>
@@ -4936,25 +5214,25 @@
         <v>2.25</v>
       </c>
       <c r="F23" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G23" s="13">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="H23" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="17">
-        <v>537238.0</v>
+        <v>537238</v>
       </c>
       <c r="C24" s="12">
-        <v>4.251099610458E12</v>
+        <v>4251099610458</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>12</v>
@@ -4963,25 +5241,25 @@
         <v>1.25</v>
       </c>
       <c r="F24" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H24" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="17">
-        <v>462780.0</v>
+        <v>462780</v>
       </c>
       <c r="C25" s="12">
-        <v>4.251099601166E12</v>
+        <v>4251099601166</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>12</v>
@@ -4990,25 +5268,25 @@
         <v>1.25</v>
       </c>
       <c r="F25" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G25" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H25" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="17">
-        <v>462637.0</v>
+        <v>462637</v>
       </c>
       <c r="C26" s="12">
-        <v>4.251099601647E12</v>
+        <v>4251099601647</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>12</v>
@@ -5017,25 +5295,25 @@
         <v>1.25</v>
       </c>
       <c r="F26" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H26" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="17">
-        <v>565718.0</v>
+        <v>565718</v>
       </c>
       <c r="C27" s="12">
-        <v>4.251099611394E12</v>
+        <v>4251099611394</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>12</v>
@@ -5044,25 +5322,25 @@
         <v>2.25</v>
       </c>
       <c r="F27" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G27" s="13">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="H27" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="17">
-        <v>520343.0</v>
+        <v>520343</v>
       </c>
       <c r="C28" s="12">
-        <v>4.251099609537E12</v>
+        <v>4251099609537</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>12</v>
@@ -5071,25 +5349,25 @@
         <v>1.25</v>
       </c>
       <c r="F28" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G28" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H28" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="17">
-        <v>558758.0</v>
+        <v>558758</v>
       </c>
       <c r="C29" s="12">
-        <v>4.251099610434E12</v>
+        <v>4251099610434</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>12</v>
@@ -5098,25 +5376,25 @@
         <v>1.25</v>
       </c>
       <c r="F29" s="13">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G29" s="13">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="H29" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="17">
-        <v>566124.0</v>
+        <v>566124</v>
       </c>
       <c r="C30" s="12">
-        <v>4.251099611615E12</v>
+        <v>4251099611615</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>12</v>
@@ -5125,2024 +5403,2024 @@
         <v>2.25</v>
       </c>
       <c r="F30" s="13">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="G30" s="13">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="H30" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Cheap</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="18"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="18"/>
     </row>
-    <row r="33">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="18"/>
     </row>
-    <row r="34">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
     </row>
-    <row r="35">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="18"/>
     </row>
-    <row r="36">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="18"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="18"/>
     </row>
-    <row r="38">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="18"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="18"/>
     </row>
-    <row r="40">
+    <row r="40" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="18"/>
     </row>
-    <row r="41">
+    <row r="41" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="18"/>
     </row>
-    <row r="42">
+    <row r="42" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="18"/>
     </row>
-    <row r="43">
+    <row r="43" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
     </row>
-    <row r="45">
+    <row r="45" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="18"/>
     </row>
-    <row r="46">
+    <row r="46" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="18"/>
     </row>
-    <row r="47">
+    <row r="47" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="18"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="18"/>
     </row>
-    <row r="49">
+    <row r="49" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="18"/>
     </row>
-    <row r="50">
+    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="18"/>
     </row>
-    <row r="51">
+    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="18"/>
     </row>
-    <row r="52">
+    <row r="52" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="18"/>
     </row>
-    <row r="53">
+    <row r="53" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="18"/>
     </row>
-    <row r="54">
+    <row r="54" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="18"/>
     </row>
-    <row r="55">
+    <row r="55" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="18"/>
     </row>
-    <row r="56">
+    <row r="56" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="18"/>
     </row>
-    <row r="57">
+    <row r="57" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="18"/>
     </row>
-    <row r="58">
+    <row r="58" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="18"/>
     </row>
-    <row r="59">
+    <row r="59" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="18"/>
     </row>
-    <row r="60">
+    <row r="60" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="18"/>
     </row>
-    <row r="61">
+    <row r="61" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="18"/>
     </row>
-    <row r="62">
+    <row r="62" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="18"/>
     </row>
-    <row r="63">
+    <row r="63" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="18"/>
     </row>
-    <row r="64">
+    <row r="64" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="18"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="18"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="18"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="18"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="18"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="18"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="18"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="18"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="18"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="18"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="18"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="18"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="18"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="18"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="18"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="18"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="18"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="18"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="18"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="18"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="18"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="18"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="18"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="18"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="18"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="18"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="18"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="18"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="18"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="18"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="18"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="18"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="18"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="18"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="18"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="18"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="18"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="18"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="18"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="18"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="18"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="18"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="18"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="18"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="18"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="18"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="18"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="18"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="18"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="18"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="18"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="18"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="18"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="18"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="18"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="18"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="18"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="18"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="18"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="18"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="18"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="18"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="18"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="18"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="18"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="18"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="18"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="18"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="18"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="18"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="18"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="18"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="18"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="18"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="18"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="18"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="18"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="18"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="18"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="18"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="18"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="18"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="18"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="18"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="18"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="18"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="18"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="18"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="18"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="18"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="18"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="18"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="18"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="18"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="18"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="18"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="18"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="18"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="18"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="18"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="18"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="18"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="18"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="18"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="18"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="18"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="18"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="18"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="18"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="18"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="18"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="18"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="18"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="18"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="18"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="18"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="18"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="18"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="18"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="18"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="18"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="18"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="18"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="18"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="18"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="18"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="18"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="18"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="18"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="18"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="18"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="18"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="18"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="18"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="18"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="18"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="18"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="18"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="18"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="18"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="18"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="18"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="18"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="18"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="18"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="18"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="18"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="18"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="18"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="18"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="18"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="18"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="18"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="18"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="18"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="18"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="18"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="18"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="18"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="18"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="18"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="18"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="18"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="18"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="18"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="18"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="18"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="18"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="18"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="18"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="18"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="18"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="18"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="18"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="18"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="18"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="18"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="18"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="18"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="18"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="18"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="18"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="18"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="18"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="18"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="18"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="18"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="18"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="18"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="18"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="18"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="18"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="18"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="18"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="18"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="18"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="18"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="18"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="18"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="18"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="18"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="18"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="18"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="18"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="18"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="18"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="18"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="18"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="18"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="18"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="18"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="18"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="18"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="18"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="18"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="18"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="18"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="18"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="18"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="18"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="18"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="18"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="18"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="18"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="18"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="18"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="18"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="18"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="18"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="18"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="18"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="18"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="18"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="18"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="18"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="18"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="18"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="18"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="18"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="18"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="18"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="18"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="18"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="18"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="18"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="18"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="18"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="18"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="18"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="18"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="18"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="18"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="18"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="18"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="18"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="18"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="18"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="18"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="18"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="18"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="18"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="18"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="18"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="18"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="18"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="18"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="18"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="18"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="18"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="18"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="18"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="18"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="18"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="18"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="18"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="18"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="18"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="18"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="18"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="18"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="18"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="18"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="18"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="18"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="18"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="18"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="18"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="18"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="18"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="18"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="18"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="18"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="18"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="18"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="18"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="18"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="18"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="18"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="18"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="18"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="18"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="18"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="18"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="18"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="18"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="18"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="18"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="18"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="18"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="18"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="18"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="18"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="18"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="18"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="18"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="18"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="18"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="18"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="18"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="18"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="18"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="18"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="18"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="18"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="18"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="18"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="18"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="18"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="18"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="18"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="18"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="18"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="18"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="18"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="18"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="18"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="18"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="18"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="18"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="18"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="18"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="18"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="18"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="18"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="18"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="18"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="18"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="18"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="18"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="18"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="18"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="18"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="18"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="18"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="18"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="18"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="18"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="18"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="18"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="18"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="18"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="18"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="18"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="18"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="18"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="18"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="18"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="18"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="18"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="18"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="18"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="18"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="18"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="18"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="18"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="18"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="18"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="18"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="18"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="18"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="18"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="18"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="18"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="18"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="18"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="18"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="18"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="18"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="18"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="18"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="18"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="18"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="18"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="18"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="18"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="18"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="18"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="18"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="18"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="18"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="18"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="18"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="18"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="18"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="18"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="18"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="18"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="18"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="18"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="18"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="18"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="18"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="18"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="18"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="18"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="18"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="18"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="18"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="18"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="18"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="18"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="18"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="18"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="18"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="18"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="18"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="18"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="18"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="18"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="18"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="18"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="18"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="18"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="18"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="18"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="18"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="18"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="18"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="18"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="18"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="18"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="18"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="18"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="18"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="18"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="18"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="18"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="18"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="18"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="18"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="18"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="18"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="18"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="18"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="18"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="18"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="18"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="18"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="18"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="18"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="18"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="18"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="18"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="18"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="18"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="18"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="18"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="18"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="18"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="18"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="18"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="18"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="18"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="18"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="18"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="18"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="18"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="18"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="18"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="18"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="18"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="18"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="18"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="18"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="18"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="18"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="18"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="18"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="18"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="18"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="18"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="18"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="18"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="18"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="18"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="18"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="18"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="18"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="18"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="18"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="18"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="18"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="18"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="18"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="18"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="18"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="18"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="18"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="18"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="18"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="18"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="18"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="18"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="18"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="18"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="18"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="18"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="18"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="18"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="18"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="18"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="18"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="18"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="18"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="18"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="18"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="18"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="18"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="18"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="18"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="18"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="18"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="18"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="18"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="18"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="18"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="18"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="18"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="18"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="18"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="18"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="18"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="18"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="18"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="18"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="18"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="18"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="18"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="18"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="18"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="18"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="18"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="18"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="18"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="18"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="18"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="18"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="18"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="18"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="18"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="18"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="18"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="18"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="18"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="18"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="18"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="18"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="18"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="18"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="18"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="18"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="18"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="18"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="18"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="18"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="18"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="18"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="18"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="18"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="18"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="18"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="18"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="18"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="18"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="18"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="18"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="18"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="18"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="18"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="18"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="18"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="18"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="18"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="18"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="18"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="18"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="18"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="18"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="18"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="18"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="18"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="18"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="18"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="18"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="18"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="18"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="18"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="18"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="18"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="18"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="18"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="18"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="18"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="18"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="18"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="18"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="18"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="18"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="18"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="18"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="18"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="18"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="18"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="18"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="18"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="18"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="18"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="18"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="18"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="18"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="18"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="18"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="18"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="18"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="18"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="18"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>